--- a/2021项目对接/02-26 人保数据提取需求/人保寿险客户服务使用数据统计表（健康）.xlsx
+++ b/2021项目对接/02-26 人保数据提取需求/人保寿险客户服务使用数据统计表（健康）.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>服务项目</t>
   </si>
@@ -167,7 +167,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -272,6 +278,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -290,13 +305,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -579,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -596,25 +605,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
@@ -626,7 +635,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -640,7 +649,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
@@ -652,7 +661,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -666,7 +675,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -678,7 +687,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -690,7 +699,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -701,35 +710,47 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
+    <row r="9" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+    <row r="10" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A5:A9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
